--- a/CourseCardSystem/养球场数值逻辑.xlsx
+++ b/CourseCardSystem/养球场数值逻辑.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D31C4C-4759-DD48-B142-202D7A3E996B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5347C7D0-82B3-E547-8301-B4F24947B3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29720" windowHeight="17480" activeTab="7" xr2:uid="{2A0EDA8D-C540-C644-998A-A786AE9D5A5E}"/>
   </bookViews>
@@ -342,16 +342,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504188</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -374,8 +374,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="825500" y="203200"/>
-          <a:ext cx="9131300" cy="5372100"/>
+          <a:off x="431800" y="279400"/>
+          <a:ext cx="9152888" cy="5384800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5085,8 +5085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE747FC-A10A-714A-B349-498E61B9BDD8}">
   <dimension ref="D31:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/CourseCardSystem/养球场数值逻辑.xlsx
+++ b/CourseCardSystem/养球场数值逻辑.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/CourseCardSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5347C7D0-82B3-E547-8301-B4F24947B3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DF3DE0-7481-BD47-AEEF-8BA2A4CBB995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29720" windowHeight="17480" activeTab="7" xr2:uid="{2A0EDA8D-C540-C644-998A-A786AE9D5A5E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29720" windowHeight="17480" activeTab="1" xr2:uid="{2A0EDA8D-C540-C644-998A-A786AE9D5A5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Bat5" sheetId="1" r:id="rId1"/>
@@ -1777,7 +1777,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710F3576-3519-054F-901B-BFF17D9469D6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -5085,8 +5087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE747FC-A10A-714A-B349-498E61B9BDD8}">
   <dimension ref="D31:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
